--- a/mff/data/usa/1_USA_WEOOct2024.xlsx
+++ b/mff/data/usa/1_USA_WEOOct2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\macroframe-forecast\mff\data\usa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B8D63-183E-4815-A493-DED167035A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE98B48-13D4-4E2B-89C6-0717104FDA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3AE35FA-8D00-47F8-88BE-FF03AE046B55}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3AE35FA-8D00-47F8-88BE-FF03AE046B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,12 +522,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -542,9 +548,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,8 +889,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A005A5B9-3104-4FE1-8D77-02B89962DACC}">
   <dimension ref="A1:BH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="AT44" sqref="AT44:AX44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5989,185 +5999,185 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" t="s">
-        <v>139</v>
-      </c>
-      <c r="N29" t="s">
-        <v>139</v>
-      </c>
-      <c r="O29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P29" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>139</v>
-      </c>
-      <c r="R29" t="s">
-        <v>139</v>
-      </c>
-      <c r="S29" t="s">
-        <v>139</v>
-      </c>
-      <c r="T29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U29" t="s">
-        <v>139</v>
-      </c>
-      <c r="V29" t="s">
-        <v>139</v>
-      </c>
-      <c r="W29" t="s">
-        <v>139</v>
-      </c>
-      <c r="X29" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE29" s="1">
+      <c r="J29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE29" s="3">
         <v>3413.43</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AF29" s="3">
         <v>3265.2890000000002</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AG29" s="3">
         <v>3352.8969999999999</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AH29" s="3">
         <v>3601.0740000000001</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AI29" s="3">
         <v>4022.9740000000002</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AJ29" s="3">
         <v>4373.4179999999997</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AK29" s="3">
         <v>4580.9129999999996</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AL29" s="3">
         <v>4509.4719999999998</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AM29" s="3">
         <v>4085.971</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AN29" s="3">
         <v>4329.6049999999996</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AO29" s="3">
         <v>4536.4639999999999</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AP29" s="3">
         <v>4731.3559999999998</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AQ29" s="3">
         <v>5270.4179999999997</v>
       </c>
-      <c r="AR29" s="1">
+      <c r="AR29" s="3">
         <v>5510.9790000000003</v>
       </c>
-      <c r="AS29" s="1">
+      <c r="AS29" s="3">
         <v>5763.1880000000001</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AT29" s="3">
         <v>5825.1379999999999</v>
       </c>
-      <c r="AU29" s="1">
+      <c r="AU29" s="3">
         <v>5962.0550000000003</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AV29" s="3">
         <v>6199.9480000000003</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="AW29" s="3">
         <v>6464.2920000000004</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AX29" s="3">
         <v>6544.24</v>
       </c>
-      <c r="AY29" s="1">
+      <c r="AY29" s="3">
         <v>7477.6040000000003</v>
       </c>
-      <c r="AZ29" s="1">
+      <c r="AZ29" s="3">
         <v>8422.2489999999998</v>
       </c>
-      <c r="BA29" s="1">
+      <c r="BA29" s="3">
         <v>8097.3789999999999</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BB29" s="3">
         <v>8720.1970000000001</v>
       </c>
-      <c r="BC29" s="1">
+      <c r="BC29" s="3">
         <v>9119.4639999999999</v>
       </c>
-      <c r="BD29" s="1">
+      <c r="BD29" s="3">
         <v>9662.9359999999997</v>
       </c>
-      <c r="BE29" s="1">
+      <c r="BE29" s="3">
         <v>10219.723</v>
       </c>
-      <c r="BF29" s="1">
+      <c r="BF29" s="3">
         <v>10609.181</v>
       </c>
-      <c r="BG29" s="1">
+      <c r="BG29" s="3">
         <v>11006.807000000001</v>
       </c>
-      <c r="BH29">
+      <c r="BH29" s="2">
         <v>2023</v>
       </c>
     </row>
@@ -6353,185 +6363,185 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>111</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J31" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" t="s">
-        <v>139</v>
-      </c>
-      <c r="N31" t="s">
-        <v>139</v>
-      </c>
-      <c r="O31" t="s">
-        <v>139</v>
-      </c>
-      <c r="P31" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>139</v>
-      </c>
-      <c r="R31" t="s">
-        <v>139</v>
-      </c>
-      <c r="S31" t="s">
-        <v>139</v>
-      </c>
-      <c r="T31" t="s">
-        <v>139</v>
-      </c>
-      <c r="U31" t="s">
-        <v>139</v>
-      </c>
-      <c r="V31" t="s">
-        <v>139</v>
-      </c>
-      <c r="W31" t="s">
-        <v>139</v>
-      </c>
-      <c r="X31" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE31" s="1">
+      <c r="J31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE31" s="3">
         <v>3471.0210000000002</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AF31" s="3">
         <v>3682.9180000000001</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AG31" s="3">
         <v>3899.4380000000001</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AH31" s="3">
         <v>4119.54</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AI31" s="3">
         <v>4423.9290000000001</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AJ31" s="3">
         <v>4654.7110000000002</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" s="3">
         <v>5002.549</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AL31" s="3">
         <v>5486.125</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AM31" s="3">
         <v>5993.7179999999998</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AN31" s="3">
         <v>5983.8680000000004</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AO31" s="3">
         <v>6052.0559999999996</v>
       </c>
-      <c r="AP31" s="1">
+      <c r="AP31" s="3">
         <v>6050.1639999999998</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AQ31" s="3">
         <v>6040.2969999999996</v>
       </c>
-      <c r="AR31" s="1">
+      <c r="AR31" s="3">
         <v>6219.8829999999998</v>
       </c>
-      <c r="AS31" s="1">
+      <c r="AS31" s="3">
         <v>6408.9120000000003</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AT31" s="3">
         <v>6644.348</v>
       </c>
-      <c r="AU31" s="1">
+      <c r="AU31" s="3">
         <v>6902.2969999999996</v>
       </c>
-      <c r="AV31" s="1">
+      <c r="AV31" s="3">
         <v>7301.9459999999999</v>
       </c>
-      <c r="AW31" s="1">
+      <c r="AW31" s="3">
         <v>7713.6319999999996</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AX31" s="3">
         <v>9517.1180000000004</v>
       </c>
-      <c r="AY31" s="1">
+      <c r="AY31" s="3">
         <v>10088.028</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="AZ31" s="3">
         <v>9442.6910000000007</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BA31" s="3">
         <v>10056.710999999999</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BB31" s="3">
         <v>10945.48</v>
       </c>
-      <c r="BC31" s="1">
+      <c r="BC31" s="3">
         <v>11341.169</v>
       </c>
-      <c r="BD31" s="1">
+      <c r="BD31" s="3">
         <v>11790.74</v>
       </c>
-      <c r="BE31" s="1">
+      <c r="BE31" s="3">
         <v>12251.017</v>
       </c>
-      <c r="BF31" s="1">
+      <c r="BF31" s="3">
         <v>12735.248</v>
       </c>
-      <c r="BG31" s="1">
+      <c r="BG31" s="3">
         <v>13147.692999999999</v>
       </c>
-      <c r="BH31">
+      <c r="BH31" s="2">
         <v>2023</v>
       </c>
     </row>
@@ -6717,185 +6727,185 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>111</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J33" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" t="s">
-        <v>139</v>
-      </c>
-      <c r="L33" t="s">
-        <v>139</v>
-      </c>
-      <c r="M33" t="s">
-        <v>139</v>
-      </c>
-      <c r="N33" t="s">
-        <v>139</v>
-      </c>
-      <c r="O33" t="s">
-        <v>139</v>
-      </c>
-      <c r="P33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>139</v>
-      </c>
-      <c r="R33" t="s">
-        <v>139</v>
-      </c>
-      <c r="S33" t="s">
-        <v>139</v>
-      </c>
-      <c r="T33" t="s">
-        <v>139</v>
-      </c>
-      <c r="U33" t="s">
-        <v>139</v>
-      </c>
-      <c r="V33" t="s">
-        <v>139</v>
-      </c>
-      <c r="W33" t="s">
-        <v>139</v>
-      </c>
-      <c r="X33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE33">
+      <c r="J33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE33" s="2">
         <v>-57.591000000000001</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="2">
         <v>-417.62900000000002</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="2">
         <v>-546.54100000000005</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="2">
         <v>-518.46600000000001</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="2">
         <v>-400.95499999999998</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="2">
         <v>-281.29300000000001</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="2">
         <v>-421.63600000000002</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="2">
         <v>-976.65300000000002</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AM33" s="3">
         <v>-1907.7470000000001</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AN33" s="3">
         <v>-1654.2629999999999</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AO33" s="3">
         <v>-1515.5920000000001</v>
       </c>
-      <c r="AP33" s="1">
+      <c r="AP33" s="3">
         <v>-1318.808</v>
       </c>
-      <c r="AQ33">
+      <c r="AQ33" s="2">
         <v>-769.87900000000002</v>
       </c>
-      <c r="AR33">
+      <c r="AR33" s="2">
         <v>-708.904</v>
       </c>
-      <c r="AS33">
+      <c r="AS33" s="2">
         <v>-645.72400000000005</v>
       </c>
-      <c r="AT33">
+      <c r="AT33" s="2">
         <v>-819.21</v>
       </c>
-      <c r="AU33">
+      <c r="AU33" s="2">
         <v>-940.24199999999996</v>
       </c>
-      <c r="AV33" s="1">
+      <c r="AV33" s="3">
         <v>-1101.998</v>
       </c>
-      <c r="AW33" s="1">
+      <c r="AW33" s="3">
         <v>-1249.3399999999999</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AX33" s="3">
         <v>-2972.8780000000002</v>
       </c>
-      <c r="AY33" s="1">
+      <c r="AY33" s="3">
         <v>-2610.424</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="AZ33" s="3">
         <v>-1020.442</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="BA33" s="3">
         <v>-1959.3320000000001</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BB33" s="3">
         <v>-2225.2829999999999</v>
       </c>
-      <c r="BC33" s="1">
+      <c r="BC33" s="3">
         <v>-2221.7040000000002</v>
       </c>
-      <c r="BD33" s="1">
+      <c r="BD33" s="3">
         <v>-2127.8049999999998</v>
       </c>
-      <c r="BE33" s="1">
+      <c r="BE33" s="3">
         <v>-2031.2940000000001</v>
       </c>
-      <c r="BF33" s="1">
+      <c r="BF33" s="3">
         <v>-2126.067</v>
       </c>
-      <c r="BG33" s="1">
+      <c r="BG33" s="3">
         <v>-2140.886</v>
       </c>
-      <c r="BH33">
+      <c r="BH33" s="2">
         <v>2023</v>
       </c>
     </row>
@@ -8173,185 +8183,185 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>111</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J41" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" t="s">
-        <v>139</v>
-      </c>
-      <c r="N41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O41" t="s">
-        <v>139</v>
-      </c>
-      <c r="P41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>139</v>
-      </c>
-      <c r="R41" t="s">
-        <v>139</v>
-      </c>
-      <c r="S41" t="s">
-        <v>139</v>
-      </c>
-      <c r="T41" t="s">
-        <v>139</v>
-      </c>
-      <c r="U41" t="s">
-        <v>139</v>
-      </c>
-      <c r="V41" t="s">
-        <v>139</v>
-      </c>
-      <c r="W41" t="s">
-        <v>139</v>
-      </c>
-      <c r="X41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE41" s="1">
+      <c r="J41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE41" s="3">
         <v>5623.8959999999997</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AF41" s="3">
         <v>6069.7879999999996</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AG41" s="3">
         <v>6716.2910000000002</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AH41" s="3">
         <v>8076.2219999999998</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AI41" s="3">
         <v>8534.5329999999994</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AJ41" s="3">
         <v>8868.1360000000004</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AK41" s="3">
         <v>9348.134</v>
       </c>
-      <c r="AL41" s="1">
+      <c r="AL41" s="3">
         <v>10845.695</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AM41" s="3">
         <v>12537.754000000001</v>
       </c>
-      <c r="AN41" s="1">
+      <c r="AN41" s="3">
         <v>14320.92</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AO41" s="3">
         <v>15521.475</v>
       </c>
-      <c r="AP41" s="1">
+      <c r="AP41" s="3">
         <v>16752.201000000001</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AQ41" s="3">
         <v>17613.823</v>
       </c>
-      <c r="AR41" s="1">
+      <c r="AR41" s="3">
         <v>18355.109</v>
       </c>
-      <c r="AS41" s="1">
+      <c r="AS41" s="3">
         <v>19147.715</v>
       </c>
-      <c r="AT41" s="1">
+      <c r="AT41" s="3">
         <v>20042.555</v>
       </c>
-      <c r="AU41" s="1">
+      <c r="AU41" s="3">
         <v>20696.469000000001</v>
       </c>
-      <c r="AV41" s="1">
+      <c r="AV41" s="3">
         <v>22070.954000000002</v>
       </c>
-      <c r="AW41" s="1">
+      <c r="AW41" s="3">
         <v>23264.016</v>
       </c>
-      <c r="AX41" s="1">
+      <c r="AX41" s="3">
         <v>28151.458999999999</v>
       </c>
-      <c r="AY41" s="1">
+      <c r="AY41" s="3">
         <v>29488.775000000001</v>
       </c>
-      <c r="AZ41" s="1">
+      <c r="AZ41" s="3">
         <v>30848.664000000001</v>
       </c>
-      <c r="BA41" s="1">
+      <c r="BA41" s="3">
         <v>32911.523000000001</v>
       </c>
-      <c r="BB41" s="1">
+      <c r="BB41" s="3">
         <v>35294.555999999997</v>
       </c>
-      <c r="BC41" s="1">
+      <c r="BC41" s="3">
         <v>37654.637000000002</v>
       </c>
-      <c r="BD41" s="1">
+      <c r="BD41" s="3">
         <v>39911.555999999997</v>
       </c>
-      <c r="BE41" s="1">
+      <c r="BE41" s="3">
         <v>42102.813000000002</v>
       </c>
-      <c r="BF41" s="1">
+      <c r="BF41" s="3">
         <v>44394.811000000002</v>
       </c>
-      <c r="BG41" s="1">
+      <c r="BG41" s="3">
         <v>46708.044000000002</v>
       </c>
-      <c r="BH41">
+      <c r="BH41" s="2">
         <v>2023</v>
       </c>
     </row>
@@ -8719,185 +8729,185 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>111</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>2.3159999999999998</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>5.0309999999999997</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>-5.5330000000000004</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="2">
         <v>-38.695</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>-94.341999999999999</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <v>-118.15900000000001</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="2">
         <v>-147.17599999999999</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="2">
         <v>-160.661</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="2">
         <v>-121.15900000000001</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="2">
         <v>-99.484999999999999</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="2">
         <v>-78.965000000000003</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="2">
         <v>2.895</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="2">
         <v>-51.613999999999997</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="2">
         <v>-84.816000000000003</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="2">
         <v>-121.61199999999999</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="2">
         <v>-113.571</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="2">
         <v>-124.773</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="2">
         <v>-140.72</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="2">
         <v>-215.066</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="2">
         <v>-286.60899999999998</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="2">
         <v>-401.91699999999997</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="2">
         <v>-394.08499999999998</v>
       </c>
-      <c r="AF44">
+      <c r="AF44" s="2">
         <v>-456.10599999999999</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="2">
         <v>-522.29300000000001</v>
       </c>
-      <c r="AH44">
+      <c r="AH44" s="2">
         <v>-635.89099999999996</v>
       </c>
-      <c r="AI44">
+      <c r="AI44" s="2">
         <v>-749.23199999999997</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="2">
         <v>-816.64700000000005</v>
       </c>
-      <c r="AK44">
+      <c r="AK44" s="2">
         <v>-736.54899999999998</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="2">
         <v>-696.52300000000002</v>
       </c>
-      <c r="AM44">
+      <c r="AM44" s="2">
         <v>-379.72899999999998</v>
       </c>
-      <c r="AN44">
+      <c r="AN44" s="2">
         <v>-432.01</v>
       </c>
-      <c r="AO44">
+      <c r="AO44" s="2">
         <v>-455.30200000000002</v>
       </c>
-      <c r="AP44">
+      <c r="AP44" s="2">
         <v>-418.18200000000002</v>
       </c>
-      <c r="AQ44">
+      <c r="AQ44" s="2">
         <v>-339.517</v>
       </c>
-      <c r="AR44">
+      <c r="AR44" s="2">
         <v>-370.05599999999998</v>
       </c>
-      <c r="AS44">
+      <c r="AS44" s="2">
         <v>-408.45400000000001</v>
       </c>
-      <c r="AT44">
+      <c r="AT44" s="2">
         <v>-396.21600000000001</v>
       </c>
-      <c r="AU44">
+      <c r="AU44" s="2">
         <v>-367.61500000000001</v>
       </c>
-      <c r="AV44">
+      <c r="AV44" s="2">
         <v>-439.84899999999999</v>
       </c>
-      <c r="AW44">
+      <c r="AW44" s="2">
         <v>-441.75200000000001</v>
       </c>
-      <c r="AX44">
+      <c r="AX44" s="2">
         <v>-601.20100000000002</v>
       </c>
-      <c r="AY44">
+      <c r="AY44" s="2">
         <v>-867.98</v>
       </c>
-      <c r="AZ44" s="1">
+      <c r="AZ44" s="3">
         <v>-1012.098</v>
       </c>
-      <c r="BA44">
+      <c r="BA44" s="2">
         <v>-905.37599999999998</v>
       </c>
-      <c r="BB44">
+      <c r="BB44" s="2">
         <v>-948.64</v>
       </c>
-      <c r="BC44">
+      <c r="BC44" s="2">
         <v>-933.91</v>
       </c>
-      <c r="BD44">
+      <c r="BD44" s="2">
         <v>-880.35500000000002</v>
       </c>
-      <c r="BE44">
+      <c r="BE44" s="2">
         <v>-829.178</v>
       </c>
-      <c r="BF44">
+      <c r="BF44" s="2">
         <v>-784.45</v>
       </c>
-      <c r="BG44">
+      <c r="BG44" s="2">
         <v>-746.49099999999999</v>
       </c>
-      <c r="BH44">
+      <c r="BH44" s="2">
         <v>2023</v>
       </c>
     </row>
